--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>建物標示</t>
   </si>
@@ -129,10 +129,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>日盛證券股份有限公司</t>
   </si>
   <si>
     <t>永豐金證券股份有限公司</t>
+  </si>
+  <si>
+    <t>2013-11-12</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -763,13 +775,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -788,13 +800,22 @@
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -811,13 +832,22 @@
       <c r="G2" s="2">
         <v>700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -833,6 +863,15 @@
       </c>
       <c r="G3" s="2">
         <v>250000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -850,13 +889,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -864,10 +903,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -878,10 +917,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -892,10 +931,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -906,10 +945,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -933,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -953,22 +992,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>建物標示</t>
   </si>
@@ -129,6 +129,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>永豐金證券股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-11-12</t>
@@ -775,13 +781,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -809,13 +815,16 @@
       <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -833,21 +842,24 @@
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1728</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -865,12 +877,15 @@
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1728</v>
       </c>
     </row>
@@ -889,13 +904,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -903,10 +918,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -917,10 +932,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -931,10 +946,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -945,10 +960,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -972,19 +987,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -992,22 +1007,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>建物標示</t>
   </si>
@@ -132,6 +132,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -141,6 +144,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>日盛證券股份有限公司</t>
   </si>
   <si>
@@ -150,7 +159,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-12</t>
+  </si>
+  <si>
+    <t>tmped871</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -781,13 +796,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -818,13 +833,22 @@
       <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -842,24 +866,33 @@
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1728</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -877,16 +910,25 @@
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1728</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -904,13 +946,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -918,10 +960,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -932,10 +974,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -946,10 +988,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -960,10 +1002,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -987,19 +1029,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1007,22 +1049,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -42,22 +42,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大同區市府段一小段 00927-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 1</t>
+    <t>臺北市大同區市府段一小段00927000建號</t>
+  </si>
+  <si>
+    <t>10000分之1</t>
   </si>
   <si>
     <t>王育敏</t>
   </si>
   <si>
-    <t>98年09月 02日</t>
+    <t>98年09月02日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>5’000,000(為 地上權房屋， 僅有使用權45 年，無土地所 有權，無權利 持分）</t>
+    <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -69,13 +69,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA RAV4</t>
+    <t>TOYOTARAV4</t>
   </si>
   <si>
     <t>楊明哲</t>
   </si>
   <si>
-    <t>102 年 02 月03曰</t>
+    <t>102年02月03曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -186,7 +186,7 @@
     <t>富邦人壽終身醫療健康保險</t>
   </si>
   <si>
-    <t>富邦人壽真安心醫療養老保 險</t>
+    <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
     <t>南山人壽增值分紅養老壽險</t>
@@ -213,10 +213,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>京城銀行忠孝分行 臺北市南港區忠孝東路六段 21號</t>
-  </si>
-  <si>
-    <t>98年10月 27日</t>
+    <t>京城銀行忠孝分行臺北市南港區忠孝東路六段21號</t>
+  </si>
+  <si>
+    <t>98年10月27日</t>
   </si>
   <si>
     <t>買屋貸款</t>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>臺北市大同區市府段一小段00927000建號</t>
   </si>
@@ -60,15 +39,6 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTARAV4</t>
   </si>
   <si>
@@ -78,33 +48,18 @@
     <t>102年02月03曰</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>永豐商業銀行建成分行</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
@@ -150,9 +105,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>日盛證券股份有限公司</t>
-  </si>
-  <si>
     <t>永豐金證券股份有限公司</t>
   </si>
   <si>
@@ -168,24 +120,15 @@
     <t>tmped871</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>富邦人壽終身醫療健康保險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽終身醫療健康保險</t>
-  </si>
-  <si>
     <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
@@ -193,21 +136,6 @@
   </si>
   <si>
     <t>南山人壽還本養老壽險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -578,59 +506,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +542,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,45 +583,66 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>813536</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>138226</v>
       </c>
       <c r="G2" s="2">
-        <v>950000</v>
+        <v>673160.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16322</v>
+      </c>
+      <c r="G3" s="2">
+        <v>453751.6</v>
       </c>
     </row>
   </sheetData>
@@ -694,109 +650,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>813536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>138226</v>
-      </c>
-      <c r="G3" s="2">
-        <v>673160.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>16322</v>
-      </c>
-      <c r="G4" s="2">
-        <v>453751.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,130 +660,86 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>700000</v>
+        <v>250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
         <v>1728</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2">
-        <v>250000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1728</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="2">
         <v>53</v>
       </c>
     </row>
@@ -938,7 +750,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,69 +758,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1018,53 +816,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2520000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
   <si>
     <t>臺北市大同區市府段一小段00927000建號</t>
   </si>
@@ -39,6 +87,18 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-12</t>
+  </si>
+  <si>
+    <t>tmped871</t>
+  </si>
+  <si>
     <t>TOYOTARAV4</t>
   </si>
   <si>
@@ -66,12 +126,6 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -81,43 +135,13 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>日盛證券股份有限公司</t>
   </si>
   <si>
     <t>永豐金證券股份有限公司</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-12</t>
-  </si>
-  <si>
-    <t>tmped871</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -506,33 +530,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
         <v>27.9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.00279</v>
       </c>
     </row>
   </sheetData>
@@ -542,29 +646,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1">
         <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
         <v>950000</v>
       </c>
     </row>
@@ -575,7 +702,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,16 +710,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -601,47 +728,68 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>138226</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>673160.62</v>
+        <v>813536</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>138226</v>
+      </c>
+      <c r="G3" s="2">
+        <v>673160.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
         <v>16322</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>453751.6</v>
       </c>
     </row>
@@ -652,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,86 +808,130 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>25000</v>
+        <v>70000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
-        <v>250000</v>
+        <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1728</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>53</v>
       </c>
     </row>
@@ -750,7 +942,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -758,55 +950,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -816,30 +1022,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>2520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2520000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>tmped871</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTARAV4</t>
@@ -646,53 +649,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -710,13 +755,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -731,13 +776,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -752,13 +797,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -775,13 +820,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -814,13 +859,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -852,7 +897,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -864,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -896,10 +941,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -908,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -950,13 +995,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -964,13 +1009,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -978,13 +1023,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -992,10 +1037,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1006,10 +1051,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1030,22 +1075,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1">
         <v>2520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1053,22 +1098,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -87,7 +87,7 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
-    <t>land</t>
+    <t>building</t>
   </si>
   <si>
     <t>normal</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>102年02月03曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>永豐商業銀行建成分行</t>
@@ -719,7 +722,7 @@
         <v>950000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -755,13 +758,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -776,13 +779,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -797,13 +800,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -820,13 +823,13 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -859,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -897,7 +900,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -909,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -941,7 +944,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -953,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -995,10 +998,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -1009,10 +1012,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1023,10 +1026,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1037,10 +1040,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1051,10 +1054,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1075,22 +1078,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>2520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1098,22 +1101,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -114,31 +114,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>永豐商業銀行建成分行</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>人民幣</t>
   </si>
   <si>
     <t>澳幣</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>日盛證券股份有限公司</t>
@@ -750,13 +759,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -767,78 +776,154 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>813536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>813536</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>138226</v>
-      </c>
-      <c r="G3" s="2">
         <v>673160.62</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>16322</v>
-      </c>
-      <c r="G4" s="2">
         <v>453751.6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1728</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -862,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -900,7 +985,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -912,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -944,7 +1029,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -956,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -998,10 +1083,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
@@ -1012,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1026,10 +1111,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1040,10 +1125,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1054,10 +1139,10 @@
         <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1078,22 +1163,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1">
         <v>2520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1101,22 +1186,22 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
+++ b/legislator/property/output/normal/王育敏_2013-11-12_財產申報表_tmped871.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -159,15 +159,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>富邦人壽終身醫療健康保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
@@ -177,6 +180,15 @@
     <t>南山人壽還本養老壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
   </si>
   <si>
     <t>買屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1075,52 +1090,115 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -1128,13 +1206,34 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>81</v>
       </c>
@@ -1142,10 +1241,31 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1155,53 +1275,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2520000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>2520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
